--- a/applications/cdc_prep/Calibration Targets.xlsx
+++ b/applications/cdc_prep/Calibration Targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruchita/Documents/Harvard/JHEEM/code/jheem_analyses/applications/cdc_prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FFACE9-8ACB-CB4F-BA11-523AAF257007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044CEFA7-7E62-2946-ACD8-C705827C2B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{BCD93746-27AC-4A41-A320-991B0CDEDBA8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Alabama</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t xml:space="preserve">Number of CDC funded HIV tests in non-healthcare settings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion Referred 2022 (South) </t>
+  </si>
+  <si>
+    <t>South not reported</t>
   </si>
 </sst>
 </file>
@@ -417,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4098C13-2DB2-C240-90F1-F117F7A1CB48}">
-  <dimension ref="A2:L6"/>
+  <dimension ref="A2:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,6 +547,33 @@
         <v>17882</v>
       </c>
     </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>2022</v>
+      </c>
+      <c r="C9">
+        <v>2021</v>
+      </c>
+      <c r="D9">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>0.54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/applications/cdc_prep/Calibration Targets.xlsx
+++ b/applications/cdc_prep/Calibration Targets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruchita/Documents/Harvard/JHEEM/code/jheem_analyses/applications/cdc_prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044CEFA7-7E62-2946-ACD8-C705827C2B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9CBC10-6F3A-D14C-91B1-D8C443C88A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{BCD93746-27AC-4A41-A320-991B0CDEDBA8}"/>
+    <workbookView xWindow="35800" yWindow="920" windowWidth="28040" windowHeight="17260" xr2:uid="{BCD93746-27AC-4A41-A320-991B0CDEDBA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Alabama</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>South not reported</t>
+  </si>
+  <si>
+    <t>Number Eligible 2025</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
   </si>
 </sst>
 </file>
@@ -423,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4098C13-2DB2-C240-90F1-F117F7A1CB48}">
-  <dimension ref="A2:L10"/>
+  <dimension ref="A2:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,6 +580,27 @@
         <v>4</v>
       </c>
     </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1">
+        <v>17146</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/applications/cdc_prep/Calibration Targets.xlsx
+++ b/applications/cdc_prep/Calibration Targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruchita/Documents/Harvard/JHEEM/code/jheem_analyses/applications/cdc_prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9CBC10-6F3A-D14C-91B1-D8C443C88A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1407508-E7F7-CC43-B1F0-08DDE55B3CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35800" yWindow="920" windowWidth="28040" windowHeight="17260" xr2:uid="{BCD93746-27AC-4A41-A320-991B0CDEDBA8}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A2:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/applications/cdc_prep/Calibration Targets.xlsx
+++ b/applications/cdc_prep/Calibration Targets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruchita/Documents/Harvard/JHEEM/code/jheem_analyses/applications/cdc_prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1407508-E7F7-CC43-B1F0-08DDE55B3CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341B3ACC-B9B8-CB4B-805D-4E8C496D4F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35800" yWindow="920" windowWidth="28040" windowHeight="17260" xr2:uid="{BCD93746-27AC-4A41-A320-991B0CDEDBA8}"/>
+    <workbookView xWindow="48420" yWindow="2020" windowWidth="19380" windowHeight="17280" xr2:uid="{BCD93746-27AC-4A41-A320-991B0CDEDBA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,10 +53,10 @@
     <t>South not reported</t>
   </si>
   <si>
-    <t>Number Eligible 2025</t>
+    <t>Louisiana</t>
   </si>
   <si>
-    <t>Louisiana</t>
+    <t>Number Eligible 2022</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A2:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,7 +582,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -595,7 +595,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1">
         <v>17146</v>
@@ -603,5 +603,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>